--- a/SINJA/src/main/resources/Students.xlsx
+++ b/SINJA/src/main/resources/Students.xlsx
@@ -161,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -351,29 +351,6 @@
         <v>90.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>1.007507956E9</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>82.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
